--- a/tradept/Excel/Localization/english/W文字探索特殊事件表_TextExploreEvents_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/W文字探索特殊事件表_TextExploreEvents_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD800EC-C620-4D75-ADCA-A3E7DC410317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF59F3-74CE-4E6A-9BDD-2B0130F9ABAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -480,28 +480,28 @@
     <t>Continuar</t>
   </si>
   <si>
-    <t>Aceptar</t>
-  </si>
-  <si>
-    <t>Desafío</t>
-  </si>
-  <si>
-    <t>· Encontraste algo de madera en una esquina del aserradero.</t>
-  </si>
-  <si>
-    <t>· No encontraste nada en el aserradero.</t>
-  </si>
-  <si>
-    <t>· Encontraste algunas piedras de hierro en las ruinas. No parece haber nada más de valor.</t>
-  </si>
-  <si>
-    <t>· No encontraste nada en las ruinas.</t>
-  </si>
-  <si>
-    <t>· Mientras camina por el mercado, un mago lo detiene que le ofrece un artículo mágico.</t>
-  </si>
-  <si>
-    <t>· Te encuentras con el espíritu manifestado de un héroe antiguo.</t>
+    <t>Aceitar</t>
+  </si>
+  <si>
+    <t>Desafio</t>
+  </si>
+  <si>
+    <t>· Você encontrou algumas madeiras em um canto da serraria.</t>
+  </si>
+  <si>
+    <t>· Você não encontrou nada na serraria.</t>
+  </si>
+  <si>
+    <t>· Você encontrou algum minério de ferro nas ruínas. Não parece haver mais nada de valor.</t>
+  </si>
+  <si>
+    <t>· Você não encontrou nada nas ruínas.</t>
+  </si>
+  <si>
+    <t>· Enquanto você está caminhando pelo mercado, um mago para você e oferece um item mágico.</t>
+  </si>
+  <si>
+    <t>· Você encontra o espírito manifestado de um herói antigo.</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,13 +828,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E118" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132:E134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2270,7 +2274,7 @@
         <v>19</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>20</v>
@@ -2289,7 +2293,7 @@
         <v>19</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>20</v>
@@ -2308,7 +2312,7 @@
         <v>19</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>20</v>
@@ -2327,7 +2331,7 @@
         <v>19</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>20</v>
@@ -2346,7 +2350,7 @@
         <v>19</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>20</v>
@@ -2365,7 +2369,7 @@
         <v>19</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>20</v>
@@ -2384,7 +2388,7 @@
         <v>19</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>20</v>
@@ -2403,7 +2407,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>20</v>
